--- a/energy_vs_income.xlsx
+++ b/energy_vs_income.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\Documents\Una\DataSkills\Projects\income_and_bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1F26C1-7401-49DD-817B-B0DE6979FF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BDA335-2F3A-463A-920E-CD9546A9B99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,21 +16,22 @@
     <sheet name="1_2c_AHC" sheetId="16" r:id="rId1"/>
     <sheet name="UK Net ave" sheetId="15" r:id="rId2"/>
     <sheet name="UK Net low inc halve energy use" sheetId="11" r:id="rId3"/>
-    <sheet name="earnings_energy_comparison" sheetId="5" r:id="rId4"/>
-    <sheet name="energy calculations" sheetId="14" r:id="rId5"/>
-    <sheet name="UK Net low income weekly energy" sheetId="10" r:id="rId6"/>
-    <sheet name="median weekly pay agg by year" sheetId="4" r:id="rId7"/>
-    <sheet name="weeklypay_data" sheetId="1" r:id="rId8"/>
-    <sheet name="Notes and references" sheetId="7" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId10"/>
-    <sheet name="gasTable 2.3.1 Average annual d" sheetId="12" r:id="rId11"/>
-    <sheet name="elect" sheetId="13" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId13"/>
+    <sheet name="compare_AHC_calc" sheetId="17" r:id="rId4"/>
+    <sheet name="earnings_energy_comparison" sheetId="5" r:id="rId5"/>
+    <sheet name="energy calculations" sheetId="14" r:id="rId6"/>
+    <sheet name="UK Net low income weekly energy" sheetId="10" r:id="rId7"/>
+    <sheet name="median weekly pay agg by year" sheetId="4" r:id="rId8"/>
+    <sheet name="weeklypay_data" sheetId="1" r:id="rId9"/>
+    <sheet name="Notes and references" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId11"/>
+    <sheet name="gasTable 2.3.1 Average annual d" sheetId="12" r:id="rId12"/>
+    <sheet name="elect" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="a">!#REF!</definedName>
@@ -108,7 +109,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="292">
   <si>
     <t/>
   </si>
@@ -987,6 +988,21 @@
   </si>
   <si>
     <t>2022_apr</t>
+  </si>
+  <si>
+    <t>using direct AHC data</t>
+  </si>
+  <si>
+    <t>using direct AHC data (60%)</t>
+  </si>
+  <si>
+    <t>weekly energy as % average net weekly  earnings(£average income - £housing)</t>
+  </si>
+  <si>
+    <t>AHC calc, energy as %  median earnings</t>
+  </si>
+  <si>
+    <t>AHC calc, energy as %   of 60% median earnings</t>
   </si>
 </sst>
 </file>
@@ -1924,6 +1940,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1945,24 +1976,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Comma 2" xfId="5" xr:uid="{B467CDA0-A7BF-4B08-800B-579DA99E11DA}"/>
@@ -4542,7 +4558,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>weekly energy as % low net weekly  earnings(£low income - £housing)</c:v>
+                  <c:v>weekly energy as % average net weekly  earnings(£average income - £housing)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6318,6 +6334,2803 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Comparing calculation of energy costs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> as % weekly earnings  </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>using separate income and expenditure figures compared with AHC figures</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>earnings_energy_comparison!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weekly energy as % low net weekly  earnings(£low income - £housing)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>earnings_energy_comparison!$A$4:$B$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="14"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>444.42</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>454.58</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>460.50</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>465.58</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>470.75</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>482.08</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>493.58</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>504.83</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>519.75</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>537.50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>547.00</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>579.00</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>597.00</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>597.00</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2022_apr</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2022_oct</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>earnings_energy_comparison!$Q$4:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>8.3085930058257631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8854482919104036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6664848027345425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.274729241402733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.368407774920223</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6628398327584843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0307068102093329</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.275406020973211</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5998800497822163</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8632294635924751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3407730561646911</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.2326986145076049</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.092816063570499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.425166747303638</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-0A6A-42BF-8F8A-DD322CA91584}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>earnings_energy_comparison!$T$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fuel poverty threshold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>earnings_energy_comparison!$A$4:$B$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="14"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>444.42</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>454.58</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>460.50</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>465.58</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>470.75</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>482.08</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>493.58</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>504.83</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>519.75</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>537.50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>547.00</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>579.00</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>597.00</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>597.00</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2022_apr</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2022_oct</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>earnings_energy_comparison!$T$4:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-0A6A-42BF-8F8A-DD322CA91584}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>earnings_energy_comparison!$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weekly energy as % average net weekly  earnings(£average income - £housing)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>earnings_energy_comparison!$A$4:$B$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="14"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>444.42</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>454.58</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>460.50</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>465.58</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>470.75</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>482.08</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>493.58</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>504.83</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>519.75</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>537.50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>547.00</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>579.00</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>597.00</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>597.00</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2022_apr</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2022_oct</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>earnings_energy_comparison!$V$4:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.5600437481743255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8731871742107016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2635013688480381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5626494325197395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.623308287698257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2555761884562147</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8937427793597346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9955362917435888</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1632565922970031</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2850897082548629</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0103761244763501</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9833641928207779</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6359433576477098</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9710571244813337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-0A6A-42BF-8F8A-DD322CA91584}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>earnings_energy_comparison!$Y$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AHC calc, energy as %  median earnings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>earnings_energy_comparison!$A$4:$B$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="14"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>444.42</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>454.58</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>460.50</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>465.58</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>470.75</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>482.08</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>493.58</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>504.83</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>519.75</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>537.50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>547.00</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>579.00</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>597.00</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>597.00</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2022_apr</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2022_oct</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>earnings_energy_comparison!$Y$4:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4.1304212356547607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5636075703916577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0679998894336817</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4040651285224657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4568636673902073</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0962615127128741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7078606596526544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7943271911039158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1048153363622131</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3685384931220446</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.1971034825922739</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2681966439709296</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4319996740547598</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.994540417209906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-0A6A-42BF-8F8A-DD322CA91584}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>earnings_energy_comparison!$AA$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AHC calc, energy as %   of 60% median earnings</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:multiLvlStrRef>
+              <c:f>earnings_energy_comparison!$A$4:$B$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="14"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>444.42</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>454.58</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>460.50</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>465.58</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>470.75</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>482.08</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>493.58</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>504.83</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>519.75</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>537.50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>547.00</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>579.00</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>597.00</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>597.00</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2012</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2013</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2014</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2015</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2016</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2017</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2018</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2019</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2020</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2021</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2022_apr</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2022_oct</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>earnings_energy_comparison!$AA$4:$AA$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6.8840353927579345</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6060126173194291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4466664823894693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0067752142041098</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0947727789836801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4937691878547916</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.8464344327544238</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9905453185065278</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5080255606036879</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9475641552034091</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6618391376537893</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7803277399515505</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.053332790091266</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.324234028683179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-0A6A-42BF-8F8A-DD322CA91584}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="520175720"/>
+        <c:axId val="520179984"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="20"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$W$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$4:$B$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="14"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>444.42</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>454.58</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>460.50</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>465.58</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>470.75</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>482.08</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>493.58</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>504.83</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>519.75</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>537.50</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>547.00</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>579.00</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>597.00</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>597.00</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2010</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2011</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2012</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2013</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2014</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2015</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2016</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2017</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2018</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2019</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2020</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2021</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2022_apr</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2022_oct</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$W$4:$W$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000015-0A6A-42BF-8F8A-DD322CA91584}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="16"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$S$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>halved energy % of (£low income - £housing)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$4:$B$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="14"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>444.42</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>454.58</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>460.50</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>465.58</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>470.75</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>482.08</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>493.58</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>504.83</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>519.75</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>537.50</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>547.00</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>579.00</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>597.00</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>597.00</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2010</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2011</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2012</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2013</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2014</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2015</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2016</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2017</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2018</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2019</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2020</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2021</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2022_apr</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2022_oct</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$S$4:$S$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>4.652812083262428</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.9758510434698264</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5.413231489531344</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.7538483751855312</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5.806308353955326</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.4111903063447517</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.0571958137172262</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.194227371744998</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5.3759328278780414</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5.5234084996117874</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>5.2308329114522278</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>5.1703112241242595</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>7.8919769955994807</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>10.318093378490039</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000011-0A6A-42BF-8F8A-DD322CA91584}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="18"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$U$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>average net weekly  income after housing costs (£)[=average weekly earnings - housing costs]</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$4:$B$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="14"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>444.42</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>454.58</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>460.50</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>465.58</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>470.75</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>482.08</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>493.58</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>504.83</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>519.75</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>537.50</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>547.00</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>579.00</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>597.00</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>597.00</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2010</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2011</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2012</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2013</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2014</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2015</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2016</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2017</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2018</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2019</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2020</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2021</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2022_apr</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2022_oct</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$U$4:$U$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>394.01666666666671</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>402.68333333333334</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>404.4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>406.08333333333331</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>411.45</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>422.7833333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>430.98333333333329</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>437.63333333333333</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>449.85</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>463.2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>471.95699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>503.20657</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>521.20657000000006</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>520.44863570000007</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000013-0A6A-42BF-8F8A-DD322CA91584}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$R$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>reduce energy by half (£)(56% bill to reflect standing charges)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$4:$B$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="14"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>444.42</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>454.58</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>460.50</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>465.58</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>470.75</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>482.08</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>493.58</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>504.83</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>519.75</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>537.50</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>547.00</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>579.00</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>597.00</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>597.00</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2010</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2011</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2012</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2013</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2014</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2015</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2016</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2017</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2018</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2019</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2020</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2021</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2022_apr</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2022_oct</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$R$4:$R$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>10.061706130054999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10.989167029503111</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>11.919935739948022</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>12.649835652845388</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12.956777091851309</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12.443032109439756</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11.811080822936582</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>12.242793915202959</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>13.007069477050919</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>13.709099896036454</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>13.242219673645115</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>14.042904974168911</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>22.287461538461542</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>29.060769230769232</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000010-0A6A-42BF-8F8A-DD322CA91584}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$P$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>weekly energy as % low income</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$4:$B$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="14"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>444.42</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>454.58</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>460.50</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>465.58</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>470.75</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>482.08</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>493.58</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>504.83</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>519.75</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>537.50</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>547.00</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>579.00</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>597.00</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>597.00</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2010</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2011</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2012</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2013</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2014</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2015</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2016</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2017</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2018</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2019</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2020</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2021</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2022_apr</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2022_oct</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$P$4:$P$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-0A6A-42BF-8F8A-DD322CA91584}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="21"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$X$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>using direct AHC data</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$4:$B$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="14"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>444.42</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>454.58</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>460.50</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>465.58</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>470.75</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>482.08</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>493.58</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>504.83</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>519.75</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>537.50</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>547.00</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>579.00</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>597.00</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>597.00</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2010</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2011</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2012</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2013</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2014</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2015</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2016</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2017</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2018</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2019</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2020</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2021</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2022_apr</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2022_oct</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$X$4:$X$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>435</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>430</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>420</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>418</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>424</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>436</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>448</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>456</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>455</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>456</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>455</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>476</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>472</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>472</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000016-0A6A-42BF-8F8A-DD322CA91584}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="23"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$Z$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>using direct AHC data (60%)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="80000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$A$4:$B$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="14"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>444.42</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>454.58</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>460.50</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>465.58</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>470.75</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>482.08</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>493.58</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>504.83</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>519.75</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>537.50</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>547.00</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>579.00</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>597.00</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>597.00</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>2010</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2011</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2012</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>2013</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>2014</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2015</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>2016</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>2017</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2018</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2019</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>2020</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>2021</c:v>
+                        </c:pt>
+                        <c:pt idx="12">
+                          <c:v>2022_apr</c:v>
+                        </c:pt>
+                        <c:pt idx="13">
+                          <c:v>2022_oct</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>earnings_energy_comparison!$Z$4:$Z$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="14"/>
+                      <c:pt idx="0">
+                        <c:v>261</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>258</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>252</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>250.79999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>254.39999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>261.59999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>268.8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>273.59999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>273</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>273.59999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>273</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>285.59999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>283.2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>283.2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000018-0A6A-42BF-8F8A-DD322CA91584}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="520175720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520179984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="520179984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>energy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> as % income after housing costs</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520175720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5553459815035316E-2"/>
+          <c:y val="0.27759947897930298"/>
+          <c:w val="0.55175818120675324"/>
+          <c:h val="0.10252985260918732"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -7171,7 +9984,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7185,7 +9998,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[energy_vs_income_backup.xlsx]median weekly pay agg by year!PivotTable10</c:name>
+    <c:name>[energy_vs_income.xlsx]median weekly pay agg by year!PivotTable10</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -7774,7 +10587,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9827,6 +12640,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11415,6 +14268,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11917,7 +15286,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12456,6 +15825,17 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3CAB498E-325C-47A2-AEE1-3357DD287861}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8959B096-C4C2-441B-9256-F676EBAAA08E}">
   <sheetPr/>
   <sheetViews>
@@ -14449,6 +17829,167 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79546</cdr:x>
+      <cdr:y>0.36891</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97228</cdr:x>
+      <cdr:y>0.46968</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48AEA67E-2881-4E57-83AD-BC3D829CCAAD}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="7401472" y="2244834"/>
+          <a:ext cx="1645237" cy="613180"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>weekly</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" baseline="0"/>
+            <a:t> energy as % income of 10% or more = fuel poverty</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14489,7 +18030,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15107,6 +18648,39 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5693DEAD-E866-40C2-AD76-9496AE516F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
@@ -15242,7 +18816,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -15379,7 +18953,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -15410,167 +18984,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.79546</cdr:x>
-      <cdr:y>0.36891</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.97228</cdr:x>
-      <cdr:y>0.46968</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48AEA67E-2881-4E57-83AD-BC3D829CCAAD}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="7401472" y="2244834"/>
-          <a:ext cx="1645237" cy="613180"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:srgbClr val="C00000"/>
-        </a:solidFill>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>weekly</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" baseline="0"/>
-            <a:t> energy as % income of 10% or more = fuel poverty</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20539,10 +23952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88336EAE-20BD-4B9B-AF86-6EA2BFF7534C}">
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="87" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView zoomScale="86" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20554,27 +23967,27 @@
     <col min="20" max="20" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B1" s="160" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B1" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-      <c r="O1" s="160"/>
-      <c r="P1" s="160"/>
-      <c r="Q1" s="160"/>
-    </row>
-    <row r="2" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="157"/>
+      <c r="K1" s="157"/>
+      <c r="L1" s="157"/>
+      <c r="M1" s="157"/>
+      <c r="N1" s="157"/>
+      <c r="O1" s="157"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+    </row>
+    <row r="2" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="124"/>
       <c r="C2" s="124"/>
       <c r="D2" s="124"/>
@@ -20595,7 +24008,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="179.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>21</v>
       </c>
@@ -20660,15 +24073,25 @@
         <v>86</v>
       </c>
       <c r="V3" s="127" t="s">
-        <v>88</v>
-      </c>
-      <c r="W3" s="162"/>
-      <c r="X3" s="162"/>
-      <c r="Y3" s="162"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-    </row>
-    <row r="4" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="W3" s="151"/>
+      <c r="X3" s="151" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y3" s="151" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z3" s="151" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA3" s="151" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB3" s="151"/>
+      <c r="AC3" s="10"/>
+    </row>
+    <row r="4" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <v>2010</v>
       </c>
@@ -20745,15 +24168,28 @@
         <v>4.5600437481743255</v>
       </c>
       <c r="W4" s="133"/>
-      <c r="X4" s="133"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AF4" t="s">
+      <c r="X4" s="133">
+        <v>435</v>
+      </c>
+      <c r="Y4" s="133">
+        <f t="shared" ref="Y4:Y13" si="3">100*O4/X4</f>
+        <v>4.1304212356547607</v>
+      </c>
+      <c r="Z4" s="9">
+        <f t="shared" ref="Z4:Z13" si="4">0.6*X4</f>
+        <v>261</v>
+      </c>
+      <c r="AA4" s="133">
+        <f t="shared" ref="AA4:AA13" si="5">100*O4/Z4</f>
+        <v>6.8840353927579345</v>
+      </c>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AH4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <v>2011</v>
       </c>
@@ -20761,11 +24197,11 @@
         <v>454.58333333333331</v>
       </c>
       <c r="C5" s="39">
-        <f t="shared" ref="C5:C17" si="3">B5-F5</f>
+        <f t="shared" ref="C5:C17" si="6">B5-F5</f>
         <v>402.68333333333334</v>
       </c>
       <c r="D5" s="39">
-        <f t="shared" ref="D5:D17" si="4">0.6*C5</f>
+        <f t="shared" ref="D5:D17" si="7">0.6*C5</f>
         <v>241.60999999999999</v>
       </c>
       <c r="E5" s="39">
@@ -20794,23 +24230,23 @@
         <v>551</v>
       </c>
       <c r="L5" s="41">
-        <f t="shared" ref="L5:L15" si="5">K5+J5</f>
+        <f t="shared" ref="L5:L15" si="8">K5+J5</f>
         <v>1020.4226527395745</v>
       </c>
       <c r="M5" s="39">
-        <f t="shared" ref="M5:M15" si="6">J5/52</f>
+        <f t="shared" ref="M5:M15" si="9">J5/52</f>
         <v>9.0273587065302774</v>
       </c>
       <c r="N5" s="39">
-        <f t="shared" ref="N5:N15" si="7">K5/52</f>
+        <f t="shared" ref="N5:N15" si="10">K5/52</f>
         <v>10.596153846153847</v>
       </c>
       <c r="O5" s="126">
-        <f t="shared" ref="O5:O15" si="8">N5+M5</f>
+        <f t="shared" ref="O5:O15" si="11">N5+M5</f>
         <v>19.623512552684126</v>
       </c>
       <c r="P5" s="42">
-        <f t="shared" ref="P5:P17" si="9">100*O5/E5</f>
+        <f t="shared" ref="P5:P17" si="12">100*O5/E5</f>
         <v>7.1946883786192943</v>
       </c>
       <c r="Q5" s="128">
@@ -20818,43 +24254,56 @@
         <v>8.8854482919104036</v>
       </c>
       <c r="R5" s="129">
-        <f t="shared" ref="R5:R17" si="10">O5*0.56</f>
+        <f t="shared" ref="R5:R17" si="13">O5*0.56</f>
         <v>10.989167029503111</v>
       </c>
       <c r="S5" s="128">
-        <f t="shared" ref="S5:S17" si="11">100*R5/H5</f>
+        <f t="shared" ref="S5:S17" si="14">100*R5/H5</f>
         <v>4.9758510434698264</v>
       </c>
       <c r="T5" s="131">
         <v>10</v>
       </c>
       <c r="U5" s="132">
-        <f t="shared" ref="U5:U17" si="12">B5-F5</f>
+        <f t="shared" ref="U5:U17" si="15">B5-F5</f>
         <v>402.68333333333334</v>
       </c>
       <c r="V5" s="133">
-        <f t="shared" ref="V5:V17" si="13">100*O5/U5</f>
+        <f t="shared" ref="V5:V17" si="16">100*O5/U5</f>
         <v>4.8731871742107016</v>
       </c>
       <c r="W5" s="133"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="103" t="s">
+      <c r="X5" s="133">
+        <v>430</v>
+      </c>
+      <c r="Y5" s="133">
+        <f t="shared" si="3"/>
+        <v>4.5636075703916577</v>
+      </c>
+      <c r="Z5" s="9">
+        <f t="shared" si="4"/>
+        <v>258</v>
+      </c>
+      <c r="AA5" s="133">
+        <f t="shared" si="5"/>
+        <v>7.6060126173194291</v>
+      </c>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="103" t="s">
         <v>280</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>14.052906999999999</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>193</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38">
         <v>2012</v>
       </c>
@@ -20862,11 +24311,11 @@
         <v>460.5</v>
       </c>
       <c r="C6" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>404.4</v>
       </c>
       <c r="D6" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>242.64</v>
       </c>
       <c r="E6" s="39">
@@ -20877,7 +24326,7 @@
         <v>56.1</v>
       </c>
       <c r="G6" s="66">
-        <f t="shared" ref="G6:G15" si="14">100*(F6-F5)/F5</f>
+        <f t="shared" ref="G6:G15" si="17">100*(F6-F5)/F5</f>
         <v>8.0924855491329541</v>
       </c>
       <c r="H6" s="126">
@@ -20885,7 +24334,7 @@
         <v>220.20000000000002</v>
       </c>
       <c r="I6" s="39">
-        <f t="shared" ref="I6:I15" si="15">100*(H6-H5)/H5</f>
+        <f t="shared" ref="I6:I15" si="18">100*(H6-H5)/H5</f>
         <v>-0.29431741000678163</v>
       </c>
       <c r="J6" s="40">
@@ -20895,23 +24344,23 @@
         <v>610</v>
       </c>
       <c r="L6" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1106.8511758523161</v>
       </c>
       <c r="M6" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.5548303048522332</v>
       </c>
       <c r="N6" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11.73076923076923</v>
       </c>
       <c r="O6" s="126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>21.285599535621465</v>
       </c>
       <c r="P6" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.7038000490848582</v>
       </c>
       <c r="Q6" s="128">
@@ -20919,43 +24368,56 @@
         <v>9.6664848027345425</v>
       </c>
       <c r="R6" s="129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>11.919935739948022</v>
       </c>
       <c r="S6" s="128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.413231489531344</v>
       </c>
       <c r="T6" s="131">
         <v>10</v>
       </c>
       <c r="U6" s="132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>404.4</v>
       </c>
       <c r="V6" s="133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.2635013688480381</v>
       </c>
       <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="103" t="s">
+      <c r="X6" s="133">
+        <v>420</v>
+      </c>
+      <c r="Y6" s="133">
+        <f t="shared" si="3"/>
+        <v>5.0679998894336817</v>
+      </c>
+      <c r="Z6" s="9">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+      <c r="AA6" s="133">
+        <f t="shared" si="5"/>
+        <v>8.4466664823894693</v>
+      </c>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="103" t="s">
         <v>280</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>33.866715999999997</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AF6" t="s">
         <v>213</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38">
         <v>2013</v>
       </c>
@@ -20963,11 +24425,11 @@
         <v>465.58333333333331</v>
       </c>
       <c r="C7" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>406.08333333333331</v>
       </c>
       <c r="D7" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>243.64999999999998</v>
       </c>
       <c r="E7" s="39">
@@ -20978,7 +24440,7 @@
         <v>59.5</v>
       </c>
       <c r="G7" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6.0606060606060588</v>
       </c>
       <c r="H7" s="126">
@@ -20986,7 +24448,7 @@
         <v>219.84999999999997</v>
       </c>
       <c r="I7" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-0.15894641235243012</v>
       </c>
       <c r="J7" s="40">
@@ -20996,23 +24458,23 @@
         <v>644</v>
       </c>
       <c r="L7" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1174.6275963356431</v>
       </c>
       <c r="M7" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.204376852608522</v>
       </c>
       <c r="N7" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12.384615384615385</v>
       </c>
       <c r="O7" s="126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>22.588992237223906</v>
       </c>
       <c r="P7" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.0862689232947584</v>
       </c>
       <c r="Q7" s="135">
@@ -21020,31 +24482,44 @@
         <v>10.274729241402733</v>
       </c>
       <c r="R7" s="129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>12.649835652845388</v>
       </c>
       <c r="S7" s="128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.7538483751855312</v>
       </c>
       <c r="T7" s="131">
         <v>10</v>
       </c>
       <c r="U7" s="132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>406.08333333333331</v>
       </c>
       <c r="V7" s="133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.5626494325197395</v>
       </c>
       <c r="W7" s="133"/>
-      <c r="X7" s="133"/>
-      <c r="Y7" s="133"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-    </row>
-    <row r="8" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="133">
+        <v>418</v>
+      </c>
+      <c r="Y7" s="133">
+        <f t="shared" si="3"/>
+        <v>5.4040651285224657</v>
+      </c>
+      <c r="Z7" s="9">
+        <f t="shared" si="4"/>
+        <v>250.79999999999998</v>
+      </c>
+      <c r="AA7" s="133">
+        <f t="shared" si="5"/>
+        <v>9.0067752142041098</v>
+      </c>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+    </row>
+    <row r="8" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="38">
         <v>2014</v>
       </c>
@@ -21052,11 +24527,11 @@
         <v>470.75</v>
       </c>
       <c r="C8" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>411.45</v>
       </c>
       <c r="D8" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>246.86999999999998</v>
       </c>
       <c r="E8" s="39">
@@ -21067,7 +24542,7 @@
         <v>59.300000000000004</v>
       </c>
       <c r="G8" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-0.33613445378150542</v>
       </c>
       <c r="H8" s="126">
@@ -21075,7 +24550,7 @@
         <v>223.14999999999998</v>
       </c>
       <c r="I8" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.501023425062548</v>
       </c>
       <c r="J8" s="40">
@@ -21085,23 +24560,23 @@
         <v>661</v>
       </c>
       <c r="L8" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1203.1293013861928</v>
       </c>
       <c r="M8" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.425563488196016</v>
       </c>
       <c r="N8" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12.711538461538462</v>
       </c>
       <c r="O8" s="126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>23.137101949734479</v>
       </c>
       <c r="P8" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.1915744201573659</v>
       </c>
       <c r="Q8" s="135">
@@ -21109,37 +24584,50 @@
         <v>10.368407774920223</v>
       </c>
       <c r="R8" s="129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>12.956777091851309</v>
       </c>
       <c r="S8" s="128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.806308353955326</v>
       </c>
       <c r="T8" s="131">
         <v>10</v>
       </c>
       <c r="U8" s="132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>411.45</v>
       </c>
       <c r="V8" s="133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.623308287698257</v>
       </c>
       <c r="W8" s="133"/>
-      <c r="X8" s="133"/>
-      <c r="Y8" s="133"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AC8">
+      <c r="X8" s="133">
+        <v>424</v>
+      </c>
+      <c r="Y8" s="133">
+        <f t="shared" si="3"/>
+        <v>5.4568636673902073</v>
+      </c>
+      <c r="Z8" s="9">
+        <f t="shared" si="4"/>
+        <v>254.39999999999998</v>
+      </c>
+      <c r="AA8" s="133">
+        <f t="shared" si="5"/>
+        <v>9.0947727789836801</v>
+      </c>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AE8">
         <v>66.004838000000007</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AF8" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
         <v>2015</v>
       </c>
@@ -21147,11 +24635,11 @@
         <v>482.08333333333331</v>
       </c>
       <c r="C9" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>422.7833333333333</v>
       </c>
       <c r="D9" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>253.66999999999996</v>
       </c>
       <c r="E9" s="39">
@@ -21162,7 +24650,7 @@
         <v>59.3</v>
       </c>
       <c r="G9" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-1.1982170923441824E-14</v>
       </c>
       <c r="H9" s="126">
@@ -21170,7 +24658,7 @@
         <v>229.95</v>
       </c>
       <c r="I9" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3.0472776159534001</v>
       </c>
       <c r="J9" s="40">
@@ -21180,23 +24668,23 @@
         <v>624</v>
       </c>
       <c r="L9" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1155.424410162263</v>
       </c>
       <c r="M9" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.219700195428134</v>
       </c>
       <c r="N9" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="O9" s="126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>22.219700195428132</v>
       </c>
       <c r="P9" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.6818323925421375</v>
       </c>
       <c r="Q9" s="128">
@@ -21204,31 +24692,44 @@
         <v>9.6628398327584843</v>
       </c>
       <c r="R9" s="129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>12.443032109439756</v>
       </c>
       <c r="S9" s="128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.4111903063447517</v>
       </c>
       <c r="T9" s="131">
         <v>10</v>
       </c>
       <c r="U9" s="132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>422.7833333333333</v>
       </c>
       <c r="V9" s="133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.2555761884562147</v>
       </c>
       <c r="W9" s="133"/>
-      <c r="X9" s="133"/>
-      <c r="Y9" s="133"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-    </row>
-    <row r="10" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="133">
+        <v>436</v>
+      </c>
+      <c r="Y9" s="133">
+        <f t="shared" si="3"/>
+        <v>5.0962615127128741</v>
+      </c>
+      <c r="Z9" s="9">
+        <f t="shared" si="4"/>
+        <v>261.59999999999997</v>
+      </c>
+      <c r="AA9" s="133">
+        <f t="shared" si="5"/>
+        <v>8.4937691878547916</v>
+      </c>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+    </row>
+    <row r="10" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>2016</v>
       </c>
@@ -21236,11 +24737,11 @@
         <v>493.58333333333331</v>
       </c>
       <c r="C10" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>430.98333333333329</v>
       </c>
       <c r="D10" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>258.58999999999997</v>
       </c>
       <c r="E10" s="39">
@@ -21251,7 +24752,7 @@
         <v>62.6</v>
       </c>
       <c r="G10" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>5.5649241146711717</v>
       </c>
       <c r="H10" s="126">
@@ -21259,7 +24760,7 @@
         <v>233.54999999999998</v>
       </c>
       <c r="I10" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.5655577299412893</v>
       </c>
       <c r="J10" s="40">
@@ -21269,23 +24770,23 @@
         <v>564</v>
       </c>
       <c r="L10" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1096.7432192726824</v>
       </c>
       <c r="M10" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10.245061909090047</v>
       </c>
       <c r="N10" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>10.846153846153847</v>
       </c>
       <c r="O10" s="126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>21.091215755243894</v>
       </c>
       <c r="P10" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.1218017069876396</v>
       </c>
       <c r="Q10" s="128">
@@ -21293,37 +24794,50 @@
         <v>9.0307068102093329</v>
       </c>
       <c r="R10" s="129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>11.811080822936582</v>
       </c>
       <c r="S10" s="128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.0571958137172262</v>
       </c>
       <c r="T10" s="131">
         <v>10</v>
       </c>
       <c r="U10" s="132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>430.98333333333329</v>
       </c>
       <c r="V10" s="133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.8937427793597346</v>
       </c>
       <c r="W10" s="133"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="133"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AD10" s="103" t="s">
+      <c r="X10" s="133">
+        <v>448</v>
+      </c>
+      <c r="Y10" s="133">
+        <f t="shared" si="3"/>
+        <v>4.7078606596526544</v>
+      </c>
+      <c r="Z10" s="9">
+        <f t="shared" si="4"/>
+        <v>268.8</v>
+      </c>
+      <c r="AA10" s="133">
+        <f t="shared" si="5"/>
+        <v>7.8464344327544238</v>
+      </c>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AF10" s="103" t="s">
         <v>273</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>1971</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>2017</v>
       </c>
@@ -21331,11 +24845,11 @@
         <v>504.83333333333331</v>
       </c>
       <c r="C11" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>437.63333333333333</v>
       </c>
       <c r="D11" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>262.58</v>
       </c>
       <c r="E11" s="39">
@@ -21346,15 +24860,15 @@
         <v>67.2</v>
       </c>
       <c r="G11" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7.3482428115015992</v>
       </c>
       <c r="H11" s="126">
-        <f t="shared" ref="H11:H17" si="16">E11-F11</f>
+        <f t="shared" ref="H11:H17" si="19">E11-F11</f>
         <v>235.7</v>
       </c>
       <c r="I11" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.92057375294369759</v>
       </c>
       <c r="J11" s="40">
@@ -21364,62 +24878,75 @@
         <v>561</v>
       </c>
       <c r="L11" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1136.8308635545604</v>
       </c>
       <c r="M11" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11.073670452972316</v>
       </c>
       <c r="N11" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>10.788461538461538</v>
       </c>
       <c r="O11" s="126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>21.862131991433856</v>
       </c>
       <c r="P11" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.2176071282383161</v>
       </c>
       <c r="Q11" s="128">
-        <f t="shared" ref="Q11:Q17" si="17">100*(O11/H11)</f>
+        <f t="shared" ref="Q11:Q17" si="20">100*(O11/H11)</f>
         <v>9.275406020973211</v>
       </c>
       <c r="R11" s="129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>12.242793915202959</v>
       </c>
       <c r="S11" s="128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.194227371744998</v>
       </c>
       <c r="T11" s="131">
         <v>10</v>
       </c>
       <c r="U11" s="132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>437.63333333333333</v>
       </c>
       <c r="V11" s="133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.9955362917435888</v>
       </c>
       <c r="W11" s="133"/>
-      <c r="X11" s="133"/>
-      <c r="Y11" s="133"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AD11" t="s">
+      <c r="X11" s="133">
+        <v>456</v>
+      </c>
+      <c r="Y11" s="133">
+        <f t="shared" si="3"/>
+        <v>4.7943271911039158</v>
+      </c>
+      <c r="Z11" s="9">
+        <f t="shared" si="4"/>
+        <v>273.59999999999997</v>
+      </c>
+      <c r="AA11" s="133">
+        <f t="shared" si="5"/>
+        <v>7.9905453185065278</v>
+      </c>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AF11" t="s">
         <v>274</v>
       </c>
-      <c r="AE11">
-        <f>AE10*1.05</f>
+      <c r="AG11">
+        <f>AG10*1.05</f>
         <v>2069.5500000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>2018</v>
       </c>
@@ -21427,11 +24954,11 @@
         <v>519.75</v>
       </c>
       <c r="C12" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>449.85</v>
       </c>
       <c r="D12" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>269.91000000000003</v>
       </c>
       <c r="E12" s="39">
@@ -21442,15 +24969,15 @@
         <v>69.900000000000006</v>
       </c>
       <c r="G12" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4.0178571428571468</v>
       </c>
       <c r="H12" s="126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>241.94999999999996</v>
       </c>
       <c r="I12" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.6516758591429666</v>
       </c>
       <c r="J12" s="40">
@@ -21460,62 +24987,75 @@
         <v>580</v>
       </c>
       <c r="L12" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1207.7993085832995</v>
       </c>
       <c r="M12" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12.073063626601916</v>
       </c>
       <c r="N12" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11.153846153846153</v>
       </c>
       <c r="O12" s="126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>23.226909780448068</v>
       </c>
       <c r="P12" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.4481031843668655</v>
       </c>
       <c r="Q12" s="128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9.5998800497822163</v>
       </c>
       <c r="R12" s="129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>13.007069477050919</v>
       </c>
       <c r="S12" s="128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.3759328278780414</v>
       </c>
       <c r="T12" s="131">
         <v>10</v>
       </c>
       <c r="U12" s="132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>449.85</v>
       </c>
       <c r="V12" s="133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.1632565922970031</v>
       </c>
       <c r="W12" s="133"/>
-      <c r="X12" s="133"/>
-      <c r="Y12" s="133"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AD12" t="s">
+      <c r="X12" s="133">
+        <v>455</v>
+      </c>
+      <c r="Y12" s="133">
+        <f t="shared" si="3"/>
+        <v>5.1048153363622131</v>
+      </c>
+      <c r="Z12" s="9">
+        <f t="shared" si="4"/>
+        <v>273</v>
+      </c>
+      <c r="AA12" s="133">
+        <f t="shared" si="5"/>
+        <v>8.5080255606036879</v>
+      </c>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AF12" t="s">
         <v>275</v>
       </c>
-      <c r="AE12">
-        <f>AE11/52</f>
+      <c r="AG12">
+        <f>AG11/52</f>
         <v>39.799038461538466</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>2019</v>
       </c>
@@ -21523,11 +25063,11 @@
         <v>537.5</v>
       </c>
       <c r="C13" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>463.2</v>
       </c>
       <c r="D13" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>277.91999999999996</v>
       </c>
       <c r="E13" s="39">
@@ -21538,15 +25078,15 @@
         <v>74.3</v>
       </c>
       <c r="G13" s="66">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6.2947067238912604</v>
       </c>
       <c r="H13" s="126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>248.2</v>
       </c>
       <c r="I13" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2.5831783426327877</v>
       </c>
       <c r="J13" s="40">
@@ -21556,55 +25096,68 @@
         <v>591</v>
       </c>
       <c r="L13" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1272.9878474890993</v>
       </c>
       <c r="M13" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>13.115150913251908</v>
       </c>
       <c r="N13" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11.365384615384615</v>
       </c>
       <c r="O13" s="126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>24.480535528636523</v>
       </c>
       <c r="P13" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.590863729809775</v>
       </c>
       <c r="Q13" s="128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9.8632294635924751</v>
       </c>
       <c r="R13" s="129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>13.709099896036454</v>
       </c>
       <c r="S13" s="128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.5234084996117874</v>
       </c>
       <c r="T13" s="131">
         <v>10</v>
       </c>
       <c r="U13" s="132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>463.2</v>
       </c>
       <c r="V13" s="133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.2850897082548629</v>
       </c>
       <c r="W13" s="133"/>
-      <c r="X13" s="133"/>
-      <c r="Y13" s="133"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-    </row>
-    <row r="14" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="133">
+        <v>456</v>
+      </c>
+      <c r="Y13" s="133">
+        <f t="shared" si="3"/>
+        <v>5.3685384931220446</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" si="4"/>
+        <v>273.59999999999997</v>
+      </c>
+      <c r="AA13" s="133">
+        <f t="shared" si="5"/>
+        <v>8.9475641552034091</v>
+      </c>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+    </row>
+    <row r="14" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>2020</v>
       </c>
@@ -21612,11 +25165,11 @@
         <v>547</v>
       </c>
       <c r="C14" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>471.95699999999999</v>
       </c>
       <c r="D14" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>283.17419999999998</v>
       </c>
       <c r="E14" s="39">
@@ -21628,15 +25181,15 @@
         <v>75.042999999999992</v>
       </c>
       <c r="G14" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.99999999999999334</v>
       </c>
       <c r="H14" s="126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>253.15699999999998</v>
       </c>
       <c r="I14" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1.9971796937953239</v>
       </c>
       <c r="J14" s="40">
@@ -21646,62 +25199,75 @@
         <v>540</v>
       </c>
       <c r="L14" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1229.6346839813318</v>
       </c>
       <c r="M14" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>13.262205461179461</v>
       </c>
       <c r="N14" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>10.384615384615385</v>
       </c>
       <c r="O14" s="126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>23.646820845794846</v>
       </c>
       <c r="P14" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.2050033046297521</v>
       </c>
       <c r="Q14" s="128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9.3407730561646911</v>
       </c>
       <c r="R14" s="129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>13.242219673645115</v>
       </c>
       <c r="S14" s="128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.2308329114522278</v>
       </c>
       <c r="T14" s="131">
         <v>10</v>
       </c>
       <c r="U14" s="132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>471.95699999999999</v>
       </c>
       <c r="V14" s="133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5.0103761244763501</v>
       </c>
       <c r="W14" s="133"/>
-      <c r="X14" s="133"/>
-      <c r="Y14" s="133"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AD14" s="103" t="s">
+      <c r="X14" s="133">
+        <v>455</v>
+      </c>
+      <c r="Y14" s="133">
+        <f t="shared" ref="Y14:AA16" si="21">100*O14/X14</f>
+        <v>5.1971034825922739</v>
+      </c>
+      <c r="Z14" s="9">
+        <f>0.6*X14</f>
+        <v>273</v>
+      </c>
+      <c r="AA14" s="133">
+        <f>100*O14/Z14</f>
+        <v>8.6618391376537893</v>
+      </c>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AF14" s="103" t="s">
         <v>276</v>
       </c>
-      <c r="AE14">
-        <f>100*AE12/10</f>
+      <c r="AG14">
+        <f>100*AG12/10</f>
         <v>397.99038461538464</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
         <v>2021</v>
       </c>
@@ -21709,11 +25275,11 @@
         <v>579</v>
       </c>
       <c r="C15" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>503.20657</v>
       </c>
       <c r="D15" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>301.92394200000001</v>
       </c>
       <c r="E15" s="39">
@@ -21725,15 +25291,15 @@
         <v>75.793429999999987</v>
       </c>
       <c r="G15" s="39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0.99999999999999256</v>
       </c>
       <c r="H15" s="126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>271.60656999999998</v>
       </c>
       <c r="I15" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7.2877976907610673</v>
       </c>
       <c r="J15" s="40">
@@ -21743,77 +25309,90 @@
         <v>550</v>
       </c>
       <c r="L15" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1303.9840333156847</v>
       </c>
       <c r="M15" s="39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14.49969294837855</v>
       </c>
       <c r="N15" s="39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>10.576923076923077</v>
       </c>
       <c r="O15" s="126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>25.076616025301625</v>
       </c>
       <c r="P15" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7.2183696100465244</v>
       </c>
       <c r="Q15" s="128">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9.2326986145076049</v>
       </c>
       <c r="R15" s="129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>14.042904974168911</v>
       </c>
       <c r="S15" s="128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.1703112241242595</v>
       </c>
       <c r="T15" s="131">
         <v>10</v>
       </c>
       <c r="U15" s="132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>503.20657</v>
       </c>
       <c r="V15" s="133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.9833641928207779</v>
       </c>
       <c r="W15" s="133"/>
-      <c r="X15" s="133"/>
-      <c r="Y15" s="133"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AD15" s="103" t="s">
+      <c r="X15" s="133">
+        <v>476</v>
+      </c>
+      <c r="Y15" s="133">
+        <f t="shared" si="21"/>
+        <v>5.2681966439709296</v>
+      </c>
+      <c r="Z15" s="9">
+        <f t="shared" ref="Z15:Z17" si="22">0.6*X15</f>
+        <v>285.59999999999997</v>
+      </c>
+      <c r="AA15" s="133">
+        <f t="shared" ref="AA15:AA17" si="23">100*O15/Z15</f>
+        <v>8.7803277399515505</v>
+      </c>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AF15" s="103" t="s">
         <v>282</v>
       </c>
-      <c r="AE15" s="163">
+      <c r="AG15" s="152">
         <v>520</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>286</v>
       </c>
       <c r="B16" s="126">
         <v>597</v>
       </c>
-      <c r="C16" s="164">
-        <f t="shared" ref="C16" si="18">B16-F16</f>
+      <c r="C16" s="153">
+        <f t="shared" ref="C16" si="24">B16-F16</f>
         <v>521.20657000000006</v>
       </c>
       <c r="D16" s="39">
-        <f t="shared" ref="D16" si="19">0.6*C16</f>
+        <f t="shared" ref="D16" si="25">0.6*C16</f>
         <v>312.72394200000002</v>
       </c>
       <c r="E16" s="39">
-        <f t="shared" ref="E16" si="20">0.6*B16</f>
+        <f t="shared" ref="E16" si="26">0.6*B16</f>
         <v>358.2</v>
       </c>
       <c r="F16" s="43">
@@ -21825,7 +25404,7 @@
         <v>0.99999999999999256</v>
       </c>
       <c r="H16" s="126">
-        <f t="shared" ref="H16" si="21">E16-F16</f>
+        <f t="shared" ref="H16" si="27">E16-F16</f>
         <v>282.40656999999999</v>
       </c>
       <c r="I16" s="39">
@@ -21845,53 +25424,66 @@
         <v>39.799038461538466</v>
       </c>
       <c r="P16" s="46">
-        <f t="shared" ref="P16" si="22">100*O16/E16</f>
+        <f t="shared" ref="P16" si="28">100*O16/E16</f>
         <v>11.110842674913028</v>
       </c>
       <c r="Q16" s="134">
-        <f t="shared" ref="Q16" si="23">100*(O16/H16)</f>
+        <f t="shared" ref="Q16" si="29">100*(O16/H16)</f>
         <v>14.092816063570499</v>
       </c>
       <c r="R16" s="129">
-        <f t="shared" ref="R16" si="24">O16*0.56</f>
+        <f t="shared" ref="R16" si="30">O16*0.56</f>
         <v>22.287461538461542</v>
       </c>
       <c r="S16" s="128">
-        <f t="shared" ref="S16" si="25">100*R16/H16</f>
+        <f t="shared" ref="S16" si="31">100*R16/H16</f>
         <v>7.8919769955994807</v>
       </c>
       <c r="T16" s="131">
         <v>10</v>
       </c>
       <c r="U16" s="132">
-        <f t="shared" ref="U16" si="26">B16-F16</f>
+        <f t="shared" ref="U16" si="32">B16-F16</f>
         <v>521.20657000000006</v>
       </c>
       <c r="V16" s="133">
-        <f t="shared" ref="V16" si="27">100*O16/U16</f>
+        <f t="shared" ref="V16" si="33">100*O16/U16</f>
         <v>7.6359433576477098</v>
       </c>
       <c r="W16" s="133"/>
-      <c r="X16" s="133"/>
-      <c r="Y16" s="133"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="163"/>
-    </row>
-    <row r="17" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="133">
+        <v>472</v>
+      </c>
+      <c r="Y16" s="133">
+        <f t="shared" si="21"/>
+        <v>8.4319996740547598</v>
+      </c>
+      <c r="Z16" s="9">
+        <f t="shared" si="22"/>
+        <v>283.2</v>
+      </c>
+      <c r="AA16" s="133">
+        <f t="shared" si="23"/>
+        <v>14.053332790091266</v>
+      </c>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AF16" s="103"/>
+      <c r="AG16" s="152"/>
+    </row>
+    <row r="17" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>285</v>
       </c>
       <c r="B17" s="126">
         <v>597</v>
       </c>
-      <c r="C17" s="164">
-        <f t="shared" si="3"/>
+      <c r="C17" s="153">
+        <f t="shared" si="6"/>
         <v>520.44863570000007</v>
       </c>
       <c r="D17" s="39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>312.26918142000005</v>
       </c>
       <c r="E17" s="39">
@@ -21907,7 +25499,7 @@
         <v>1.0000000000000031</v>
       </c>
       <c r="H17" s="126">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>281.6486357</v>
       </c>
       <c r="I17" s="39">
@@ -21927,74 +25519,87 @@
         <v>51.894230769230766</v>
       </c>
       <c r="P17" s="46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>14.487501610617187</v>
       </c>
       <c r="Q17" s="134">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>18.425166747303638</v>
       </c>
       <c r="R17" s="129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>29.060769230769232</v>
       </c>
       <c r="S17" s="128">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10.318093378490039</v>
       </c>
       <c r="T17" s="131">
         <v>10</v>
       </c>
       <c r="U17" s="132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>520.44863570000007</v>
       </c>
       <c r="V17" s="133">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9.9710571244813337</v>
       </c>
       <c r="W17" s="133"/>
-      <c r="X17" s="133"/>
-      <c r="Y17" s="133"/>
-      <c r="AD17" s="103" t="s">
+      <c r="X17" s="133">
+        <v>472</v>
+      </c>
+      <c r="Y17" s="133">
+        <f>100*O17/X17</f>
+        <v>10.994540417209906</v>
+      </c>
+      <c r="Z17" s="9">
+        <f t="shared" si="22"/>
+        <v>283.2</v>
+      </c>
+      <c r="AA17" s="133">
+        <f t="shared" si="23"/>
+        <v>18.324234028683179</v>
+      </c>
+      <c r="AF17" s="103" t="s">
         <v>277</v>
       </c>
-      <c r="AE17" s="165">
-        <f>100*(AE14/AE15)</f>
+      <c r="AG17" s="154">
+        <f>100*(AG14/AG15)</f>
         <v>76.536612426035504</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AI17" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
       <c r="L18" s="136" t="s">
         <v>144</v>
       </c>
       <c r="Q18" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="AG18">
-        <f>AE17*AF6/100</f>
+      <c r="AI18">
+        <f>AG17*AH6/100</f>
         <v>361.25281065088757</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="F19" s="32" t="s">
         <v>64</v>
       </c>
       <c r="G19" s="32"/>
-      <c r="AF19" s="103" t="s">
+      <c r="AH19" s="103" t="s">
         <v>280</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>23.2</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="F20" s="32" t="s">
         <v>77</v>
       </c>
@@ -22004,31 +25609,31 @@
         <v>0.16618428540802224</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="F21" s="13" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="15" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="AC23">
+      <c r="AE23">
         <v>33.866715999999997</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AF23" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>28</v>
       </c>
@@ -22041,26 +25646,26 @@
         <v>18626.399999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="158" t="s">
+    <row r="28" spans="1:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="159"/>
-      <c r="Q28" s="159"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22100,10 +25705,10 @@
       <c r="B1" s="106">
         <v>2900</v>
       </c>
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="151"/>
+      <c r="D1" s="158"/>
       <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -22227,17 +25832,17 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
-      <c r="B17" s="152" t="s">
+      <c r="B17" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="153"/>
-      <c r="D17" s="154"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="161"/>
       <c r="E17" s="110"/>
-      <c r="F17" s="155" t="s">
+      <c r="F17" s="162" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="156"/>
-      <c r="H17" s="157"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="164"/>
       <c r="I17" s="123" t="s">
         <v>138</v>
       </c>
@@ -26627,14 +30232,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="11"/>

--- a/energy_vs_income.xlsx
+++ b/energy_vs_income.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\Documents\Una\DataSkills\Projects\income_and_bills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BDA335-2F3A-463A-920E-CD9546A9B99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F0E1B3-E47A-4E0C-8D07-2A33EBE195D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_2c_AHC" sheetId="16" r:id="rId1"/>
@@ -109,7 +109,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId18"/>
+    <pivotCache cacheId="5" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2011,12 +2011,6 @@
   <dxfs count="32">
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2787,6 +2781,12 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <family val="2"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4865,7 +4865,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> low income and weekly energy (both £)</a:t>
+                  <a:t> average income after housing costs and weekly energy (both £)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -6114,7 +6114,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-GB" baseline="0"/>
-                  <a:t> energy as % of net low income</a:t>
+                  <a:t> energy as % of (net low weekly income - housing costs)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-GB"/>
               </a:p>
@@ -7558,7 +7558,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$S$3</c15:sqref>
@@ -7608,7 +7608,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$A$4:$B$17</c15:sqref>
@@ -7710,7 +7710,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$S$4:$S$17</c15:sqref>
@@ -7766,7 +7766,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-0A6A-42BF-8F8A-DD322CA91584}"/>
                   </c:ext>
@@ -7779,7 +7779,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$U$3</c15:sqref>
@@ -7826,7 +7826,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$A$4:$B$17</c15:sqref>
@@ -7928,7 +7928,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$U$4:$U$17</c15:sqref>
@@ -7984,7 +7984,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000013-0A6A-42BF-8F8A-DD322CA91584}"/>
                   </c:ext>
@@ -7997,7 +7997,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$R$3</c15:sqref>
@@ -8047,7 +8047,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$A$4:$B$17</c15:sqref>
@@ -8149,7 +8149,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$R$4:$R$17</c15:sqref>
@@ -8205,7 +8205,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-0A6A-42BF-8F8A-DD322CA91584}"/>
                   </c:ext>
@@ -8218,7 +8218,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$P$3</c15:sqref>
@@ -8268,7 +8268,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$A$4:$B$17</c15:sqref>
@@ -8370,7 +8370,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$P$4:$P$17</c15:sqref>
@@ -8380,7 +8380,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-0A6A-42BF-8F8A-DD322CA91584}"/>
                   </c:ext>
@@ -8393,7 +8393,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$X$3</c15:sqref>
@@ -8440,7 +8440,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$A$4:$B$17</c15:sqref>
@@ -8542,7 +8542,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$X$4:$X$17</c15:sqref>
@@ -8598,7 +8598,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000016-0A6A-42BF-8F8A-DD322CA91584}"/>
                   </c:ext>
@@ -8611,7 +8611,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$Z$3</c15:sqref>
@@ -8658,7 +8658,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$A$4:$B$17</c15:sqref>
@@ -8760,7 +8760,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>earnings_energy_comparison!$Z$4:$Z$17</c15:sqref>
@@ -8816,7 +8816,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000018-0A6A-42BF-8F8A-DD322CA91584}"/>
                   </c:ext>
@@ -15806,7 +15806,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{EBB58D30-9A5B-4F42-8C29-143034167B4A}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15828,7 +15828,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3CAB498E-325C-47A2-AEE1-3357DD287861}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="121" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18110,12 +18110,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.4536</cdr:x>
-      <cdr:y>0.12126</cdr:y>
+      <cdr:x>0.43618</cdr:x>
+      <cdr:y>0.11184</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.64892</cdr:x>
-      <cdr:y>0.23824</cdr:y>
+      <cdr:x>0.6315</cdr:x>
+      <cdr:y>0.22882</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -18130,8 +18130,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4221199" y="736888"/>
-          <a:ext cx="1817633" cy="710882"/>
+          <a:off x="4055587" y="678497"/>
+          <a:ext cx="1816059" cy="709682"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -18484,12 +18484,12 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.52644</cdr:x>
-      <cdr:y>0.69018</cdr:y>
+      <cdr:x>0.46322</cdr:x>
+      <cdr:y>0.71487</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.70326</cdr:x>
-      <cdr:y>0.79095</cdr:y>
+      <cdr:x>0.63402</cdr:x>
+      <cdr:y>0.80869</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -18504,8 +18504,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4899000" y="4194164"/>
-          <a:ext cx="1645474" cy="612374"/>
+          <a:off x="4308547" y="4340086"/>
+          <a:ext cx="1588669" cy="569565"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -18632,7 +18632,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US"/>
-            <a:t>if energy usage was halved (by</a:t>
+            <a:t>if energy usage were halved (by</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" baseline="0"/>
@@ -18650,7 +18650,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -21702,7 +21702,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable10" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="7" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable10" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="7" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
   <location ref="A3:B28" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -21820,7 +21820,7 @@
     <dataField name="Average of weekly pay" fld="2" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="31">
+    <format dxfId="30">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0" selected="0"/>
@@ -21852,44 +21852,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A78DEB72-0BCD-4E25-8C2E-8356CF5991E4}" name="Average_annual_domestic_gas_bills_in_cash_terms_by_home_and_non_home_supplier_based_on_consumption_of_13600kWh_year_Great_Britain" displayName="Average_annual_domestic_gas_bills_in_cash_terms_by_home_and_non_home_supplier_based_on_consumption_of_13600kWh_year_Great_Britain" ref="A13:M25" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A78DEB72-0BCD-4E25-8C2E-8356CF5991E4}" name="Average_annual_domestic_gas_bills_in_cash_terms_by_home_and_non_home_supplier_based_on_consumption_of_13600kWh_year_Great_Britain" displayName="Average_annual_domestic_gas_bills_in_cash_terms_by_home_and_non_home_supplier_based_on_consumption_of_13600kWh_year_Great_Britain" ref="A13:M25" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowCellStyle="Normal">
   <autoFilter ref="A13:M25" xr:uid="{A78DEB72-0BCD-4E25-8C2E-8356CF5991E4}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{30BD38D5-17E1-4C20-AA72-65D57B5427CD}" name="Year" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{6B861553-9AF8-4D57-BD90-9E0B8321115F}" name="Standard credit: Home suppliers (pounds)" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{30BD38D5-17E1-4C20-AA72-65D57B5427CD}" name="Year" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{6B861553-9AF8-4D57-BD90-9E0B8321115F}" name="Standard credit: Home suppliers (pounds)" dataDxfId="26">
       <calculatedColumnFormula>ROUND([2]calc_new!C7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{34DC8BB4-DF60-4AB2-A9B8-B6E9A3CF3B51}" name="Standard credit: Non-home suppliers (pounds)" dataDxfId="26">
+    <tableColumn id="3" xr3:uid="{34DC8BB4-DF60-4AB2-A9B8-B6E9A3CF3B51}" name="Standard credit: Non-home suppliers (pounds)" dataDxfId="25">
       <calculatedColumnFormula>ROUND([2]calc_new!D7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{449F8710-B958-4F22-83EB-0437FC7BA359}" name="Standard credit: All consumers (pounds)" dataDxfId="25">
+    <tableColumn id="4" xr3:uid="{449F8710-B958-4F22-83EB-0437FC7BA359}" name="Standard credit: All consumers (pounds)" dataDxfId="24">
       <calculatedColumnFormula>ROUND([2]calc_new!E7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D0C86BCD-9F7C-4E55-AC46-58983E9726E1}" name="Direct debit: Home suppliers (pounds)" dataDxfId="24">
+    <tableColumn id="5" xr3:uid="{D0C86BCD-9F7C-4E55-AC46-58983E9726E1}" name="Direct debit: Home suppliers (pounds)" dataDxfId="23">
       <calculatedColumnFormula>ROUND([2]calc_new!G7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{F0760AC4-3D2A-45FE-9139-E86D810327AB}" name="Direct debit: Non-home suppliers (pounds)" dataDxfId="23">
+    <tableColumn id="6" xr3:uid="{F0760AC4-3D2A-45FE-9139-E86D810327AB}" name="Direct debit: Non-home suppliers (pounds)" dataDxfId="22">
       <calculatedColumnFormula>ROUND([2]calc_new!H7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{741AC686-5706-4258-A29E-6EC199AE341D}" name="Direct debit: All consumers (pounds)" dataDxfId="22">
+    <tableColumn id="7" xr3:uid="{741AC686-5706-4258-A29E-6EC199AE341D}" name="Direct debit: All consumers (pounds)" dataDxfId="21">
       <calculatedColumnFormula>ROUND([2]calc_new!I7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{3E2B3AB2-EEFC-4398-9023-308A84997B1C}" name="Prepayment: Home suppliers (pounds)" dataDxfId="21">
+    <tableColumn id="8" xr3:uid="{3E2B3AB2-EEFC-4398-9023-308A84997B1C}" name="Prepayment: Home suppliers (pounds)" dataDxfId="20">
       <calculatedColumnFormula>ROUND([2]calc_new!K7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{ECFB11A5-2D9E-48BC-A2B1-4C76DDE1E0E0}" name="Prepayment: Non-home suppliers (pounds)" dataDxfId="20">
+    <tableColumn id="9" xr3:uid="{ECFB11A5-2D9E-48BC-A2B1-4C76DDE1E0E0}" name="Prepayment: Non-home suppliers (pounds)" dataDxfId="19">
       <calculatedColumnFormula>ROUND([2]calc_new!L7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0C102352-1CDF-4D1E-BC72-77441FAE49FE}" name="Prepayment: All consumers (pounds)" dataDxfId="19">
+    <tableColumn id="10" xr3:uid="{0C102352-1CDF-4D1E-BC72-77441FAE49FE}" name="Prepayment: All consumers (pounds)" dataDxfId="18">
       <calculatedColumnFormula>ROUND([2]calc_new!M7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7521195B-BCD3-4B8D-A2C8-F77F6E45E8A3}" name="Overall: Home suppliers (pounds)" dataDxfId="18">
+    <tableColumn id="11" xr3:uid="{7521195B-BCD3-4B8D-A2C8-F77F6E45E8A3}" name="Overall: Home suppliers (pounds)" dataDxfId="17">
       <calculatedColumnFormula>ROUND([2]calc_new!O7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{E20D2093-EAAD-43D8-9FBB-5CE39DD91F78}" name="Overall: Non-home suppliers (pounds)" dataDxfId="17">
+    <tableColumn id="12" xr3:uid="{E20D2093-EAAD-43D8-9FBB-5CE39DD91F78}" name="Overall: Non-home suppliers (pounds)" dataDxfId="16">
       <calculatedColumnFormula>ROUND([2]calc_new!P7,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F40BE037-E6B6-41A5-A784-9D1BEC56253C}" name="Overall: UK (pounds)" dataDxfId="16">
+    <tableColumn id="13" xr3:uid="{F40BE037-E6B6-41A5-A784-9D1BEC56253C}" name="Overall: UK (pounds)" dataDxfId="15">
       <calculatedColumnFormula>ROUND([2]calc_new!Q7,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21898,44 +21898,44 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{429E7A40-E504-4982-9061-ADA53938FB27}" name="Average_annual_domestic_Standard_Electricity_bills_in_cash_terms_by_home_and_non_home_supplier_based_on_consumption_of_3600kWh_year_United_Kingdom" displayName="Average_annual_domestic_Standard_Electricity_bills_in_cash_terms_by_home_and_non_home_supplier_based_on_consumption_of_3600kWh_year_United_Kingdom" ref="A9:M21" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{429E7A40-E504-4982-9061-ADA53938FB27}" name="Average_annual_domestic_Standard_Electricity_bills_in_cash_terms_by_home_and_non_home_supplier_based_on_consumption_of_3600kWh_year_United_Kingdom" displayName="Average_annual_domestic_Standard_Electricity_bills_in_cash_terms_by_home_and_non_home_supplier_based_on_consumption_of_3600kWh_year_United_Kingdom" ref="A9:M21" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Normal">
   <autoFilter ref="A9:M21" xr:uid="{429E7A40-E504-4982-9061-ADA53938FB27}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{A2263EB7-6357-4080-8F28-BDC9454EF550}" name="Year" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{BC21DD0A-3253-4497-888B-76D603023FF6}" name="Standard credit: Home suppliers (pounds)" dataDxfId="12">
+    <tableColumn id="1" xr3:uid="{A2263EB7-6357-4080-8F28-BDC9454EF550}" name="Year" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{BC21DD0A-3253-4497-888B-76D603023FF6}" name="Standard credit: Home suppliers (pounds)" dataDxfId="11">
       <calculatedColumnFormula>[3]calc_new!C7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B8163651-9FFE-4A49-B3D4-8DD414CEB205}" name="Standard credit: Non-home suppliers (pounds)" dataDxfId="11">
+    <tableColumn id="3" xr3:uid="{B8163651-9FFE-4A49-B3D4-8DD414CEB205}" name="Standard credit: Non-home suppliers (pounds)" dataDxfId="10">
       <calculatedColumnFormula>[3]calc_new!D7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B183ABB5-9FB4-4016-9BFC-D80AF262841C}" name="Standard credit: All consumers (pounds)" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{B183ABB5-9FB4-4016-9BFC-D80AF262841C}" name="Standard credit: All consumers (pounds)" dataDxfId="9">
       <calculatedColumnFormula>[3]calc_new!E7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D44B4B46-27EE-4C16-8AAC-F2F92B0C2C90}" name="Direct debit: Home suppliers (pounds)" dataDxfId="9">
+    <tableColumn id="5" xr3:uid="{D44B4B46-27EE-4C16-8AAC-F2F92B0C2C90}" name="Direct debit: Home suppliers (pounds)" dataDxfId="8">
       <calculatedColumnFormula>[3]calc_new!F7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{32DE5A24-EC6F-45DB-BBAE-476670ED5B07}" name="Direct debit: Non-home suppliers (pounds)" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{32DE5A24-EC6F-45DB-BBAE-476670ED5B07}" name="Direct debit: Non-home suppliers (pounds)" dataDxfId="7">
       <calculatedColumnFormula>[3]calc_new!G7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2D53E424-0C7F-458E-98EF-A0436BAB8F7E}" name="Direct debit: All consumers (pounds)" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{2D53E424-0C7F-458E-98EF-A0436BAB8F7E}" name="Direct debit: All consumers (pounds)" dataDxfId="6">
       <calculatedColumnFormula>[3]calc_new!H7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F6BAC252-3D85-4708-97AB-711BCDC6CFC7}" name="Prepayment: Home suppliers (pounds)" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{F6BAC252-3D85-4708-97AB-711BCDC6CFC7}" name="Prepayment: Home suppliers (pounds)" dataDxfId="5">
       <calculatedColumnFormula>[3]calc_new!I7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A67F95AE-8155-45E8-901C-A3A266C77F92}" name="Prepayment: Non-home suppliers (pounds)" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{A67F95AE-8155-45E8-901C-A3A266C77F92}" name="Prepayment: Non-home suppliers (pounds)" dataDxfId="4">
       <calculatedColumnFormula>[3]calc_new!J7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AA7D8D03-847B-4CFC-9836-36BFCD66E337}" name="Prepayment: All consumers (pounds)" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{AA7D8D03-847B-4CFC-9836-36BFCD66E337}" name="Prepayment: All consumers (pounds)" dataDxfId="3">
       <calculatedColumnFormula>[3]calc_new!K7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D8F056FC-28A9-46CD-BA03-D8813EA0AA07}" name="Overall: Home suppliers (pounds)" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{D8F056FC-28A9-46CD-BA03-D8813EA0AA07}" name="Overall: Home suppliers (pounds)" dataDxfId="2">
       <calculatedColumnFormula>[3]calc_new!L7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{3F647466-D196-4F0B-8985-75A0F37521F3}" name="Overall: Non-home suppliers (pounds)" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{3F647466-D196-4F0B-8985-75A0F37521F3}" name="Overall: Non-home suppliers (pounds)" dataDxfId="1">
       <calculatedColumnFormula>[3]calc_new!M7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{90D18E8B-FFE3-4147-B575-FCE86CD58F50}" name="Overall: UK (pounds)" dataDxfId="1">
+    <tableColumn id="13" xr3:uid="{90D18E8B-FFE3-4147-B575-FCE86CD58F50}" name="Overall: UK (pounds)" dataDxfId="0">
       <calculatedColumnFormula>[3]calc_new!N7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -23923,7 +23923,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AB4:AC116">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notBetween">
+    <cfRule type="cellIs" dxfId="31" priority="1" stopIfTrue="1" operator="notBetween">
       <formula>-0.15</formula>
       <formula>0.15</formula>
     </cfRule>
@@ -25246,7 +25246,7 @@
         <v>455</v>
       </c>
       <c r="Y14" s="133">
-        <f t="shared" ref="Y14:AA16" si="21">100*O14/X14</f>
+        <f t="shared" ref="Y14:Y16" si="21">100*O14/X14</f>
         <v>5.1971034825922739</v>
       </c>
       <c r="Z14" s="9">
